--- a/Stocks/NCC.xlsx
+++ b/Stocks/NCC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>Scrip</t>
   </si>
@@ -33,13 +33,91 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Volume</t>
-  </si>
-  <si>
     <t>NCC</t>
   </si>
   <si>
     <t>Last</t>
+  </si>
+  <si>
+    <t>Typical Price</t>
+  </si>
+  <si>
+    <t>3D EMA of TYP</t>
+  </si>
+  <si>
+    <t>Trend Identifier</t>
+  </si>
+  <si>
+    <t>8D EMA of High</t>
+  </si>
+  <si>
+    <t>8D EMA of Low</t>
+  </si>
+  <si>
+    <t>Trend Confirmation</t>
+  </si>
+  <si>
+    <t>Overall Trend</t>
+  </si>
+  <si>
+    <t>5D RSI of Close</t>
+  </si>
+  <si>
+    <t>Momentum</t>
+  </si>
+  <si>
+    <t>Trend + Momentum</t>
+  </si>
+  <si>
+    <t>Close - Low</t>
+  </si>
+  <si>
+    <t>High - Low</t>
+  </si>
+  <si>
+    <t>IBS</t>
+  </si>
+  <si>
+    <t>IBS Indication</t>
+  </si>
+  <si>
+    <t>Trend+Momentum+IBS</t>
+  </si>
+  <si>
+    <t>12D EMA of Close</t>
+  </si>
+  <si>
+    <t>26D EMA of Close</t>
+  </si>
+  <si>
+    <t>12D EMA - 26D EMA</t>
+  </si>
+  <si>
+    <t>9D MACD Signal</t>
+  </si>
+  <si>
+    <t>MACD Indication</t>
+  </si>
+  <si>
+    <t>Trend+Mom+IBS+MACD</t>
+  </si>
+  <si>
+    <t>Final Confirmation</t>
+  </si>
+  <si>
+    <t>Alert</t>
+  </si>
+  <si>
+    <t>0.886 SL</t>
+  </si>
+  <si>
+    <t>E1: 0.618 Retracement</t>
+  </si>
+  <si>
+    <t>E2: 0.5 Retracement</t>
+  </si>
+  <si>
+    <t>E3: 0.382 Retracement</t>
   </si>
 </sst>
 </file>
@@ -383,7 +461,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:AG1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,7 +470,7 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,15 +487,93 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>42857</v>
@@ -435,12 +591,117 @@
         <v>99</v>
       </c>
       <c r="G2">
-        <v>4496286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D2,E2,F2)</f>
+        <v>97.483333333333334</v>
+      </c>
+      <c r="H2" t="e">
+        <f t="array" ref="H2:H47">_xll.TA_EMA(G2:G47,3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I2" t="e">
+        <f>IF(F2&gt;H2,"UP","DOWN")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J2" t="e">
+        <f t="array" ref="J2:J47">_xll.TA_EMA(D2:D47,8)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K2" t="e">
+        <f t="array" ref="K2:K47">_xll.TA_EMA(E2:E47,8)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L2" t="e">
+        <f>IF(F2&gt;J2,"UP",IF(F2&lt;K2,"DOWN","No Confirmation"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M2" t="e">
+        <f>IF(AND(I2="UP",L2="UP"),"UP",IF(AND(I2="DOWN",L2="DOWN"),"DOWN","No Trend"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N2" t="e">
+        <f t="array" ref="N2:N47">_xll.TA_RSI(F2:F47,5)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O2" t="e">
+        <f>IF(N2&gt;60,"UP",IF(N2&lt;40,"DOWN","No Momentum"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P2" t="e">
+        <f>IF(AND(M2="UP",O2="UP"),"UP",IF(AND(M2="DOWN",O2="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q2">
+        <f>F2-E2</f>
+        <v>4.75</v>
+      </c>
+      <c r="R2">
+        <f>D2-E2</f>
+        <v>4.9500000000000028</v>
+      </c>
+      <c r="S2">
+        <f>Q2/R2</f>
+        <v>0.959595959595959</v>
+      </c>
+      <c r="T2" t="str">
+        <f>IF(S2&gt;0.8,"UP",IF(S2&lt;0.2,"DOWN","No Indication"))</f>
+        <v>UP</v>
+      </c>
+      <c r="U2" t="e">
+        <f>IF(AND(P2="UP",T2="UP"),"UP",IF(AND(P2="DOWN",T2="DOWN"),"DOWN","No T+M+I"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V2" t="e">
+        <f t="array" ref="V2:V47">_xll.TA_EMA(F2:F47,12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W2" t="e">
+        <f t="array" ref="W2:W47">_xll.TA_EMA(F2:F47,26)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X2" t="e">
+        <f>V2-W2</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y2" t="e">
+        <f t="array" ref="Y2:Y47">_xll.TA_EMA(X2:X47,9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z2" t="e">
+        <f>IF(X2&gt;Y2,"UP",IF(X2&lt;Y2,"DOWN","No Indication"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA2" t="e">
+        <f>IF(AND(U2="UP",Z2="UP"),"UP",IF(AND(U2="DOWN",Z2="DOWN"),"DOWN","No TMIM"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB2" t="e">
+        <f>IF(H2&gt;J2,"UP",IF(H2&lt;K2,"DOWN","No Confirmation"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC2" t="e">
+        <f>IF(AND(AA2="UP",AB2="UP"),"UP",IF(AND(AA2="DOWN",AB2="DOWN"),"DOWN","No Alert"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD2" t="e">
+        <f>IF(AC2="UP",MROUND(D2-((D2-E2)*0.886),0.05),IF(AC2="DOWN",MROUND(E2+((D2-E2)*0.886),0.05),"No Alert"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE2" t="e">
+        <f>IF(AC2="UP",MROUND(D2-((D2-E2)*0.618),0.05),IF(AC2="DOWN",MROUND(E2+((D2-E2)*0.618),0.05),"No Alert"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF2" t="e">
+        <f>IF(AC2="UP",MROUND(D2-((D2-E2)*0.5),0.05),IF(AC2="DOWN",MROUND(E2+((D2-E2)*0.5),0.05),"No Alert"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG2" t="e">
+        <f>IF(AC2="UP",MROUND(D2-((D2-E2)*0.382),0.05),IF(AC2="DOWN",MROUND(E2+((D2-E2)*0.382),0.05),"No Alert"))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>42858</v>
@@ -458,12 +719,110 @@
         <v>98</v>
       </c>
       <c r="G3">
-        <v>3252346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D3,E3,F3)</f>
+        <v>98.616666666666674</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I3" t="e">
+        <f t="shared" ref="I3:I47" si="0">IF(F3&gt;H3,"UP","DOWN")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L3" t="e">
+        <f t="shared" ref="L3:L47" si="1">IF(F3&gt;J3,"UP",IF(F3&lt;K3,"DOWN","No Confirmation"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M3" t="e">
+        <f t="shared" ref="M3:M47" si="2">IF(AND(I3="UP",L3="UP"),"UP",IF(AND(I3="DOWN",L3="DOWN"),"DOWN","No Trend"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O3" t="e">
+        <f t="shared" ref="O3:O47" si="3">IF(N3&gt;60,"UP",IF(N3&lt;40,"DOWN","No Momentum"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P3" t="e">
+        <f t="shared" ref="P3:P47" si="4">IF(AND(M3="UP",O3="UP"),"UP",IF(AND(M3="DOWN",O3="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q47" si="5">F3-E3</f>
+        <v>0.65000000000000568</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R47" si="6">D3-E3</f>
+        <v>3.1500000000000057</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S47" si="7">Q3/R3</f>
+        <v>0.20634920634920778</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T47" si="8">IF(S3&gt;0.8,"UP",IF(S3&lt;0.2,"DOWN","No Indication"))</f>
+        <v>No Indication</v>
+      </c>
+      <c r="U3" t="e">
+        <f t="shared" ref="U3:U47" si="9">IF(AND(P3="UP",T3="UP"),"UP",IF(AND(P3="DOWN",T3="DOWN"),"DOWN","No T+M+I"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X3" t="e">
+        <f t="shared" ref="X3:X47" si="10">V3-W3</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z3" t="e">
+        <f t="shared" ref="Z3:Z47" si="11">IF(X3&gt;Y3,"UP",IF(X3&lt;Y3,"DOWN","No Indication"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA3" t="e">
+        <f t="shared" ref="AA3:AA47" si="12">IF(AND(U3="UP",Z3="UP"),"UP",IF(AND(U3="DOWN",Z3="DOWN"),"DOWN","No TMIM"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB3" t="e">
+        <f t="shared" ref="AB3:AB47" si="13">IF(H3&gt;J3,"UP",IF(H3&lt;K3,"DOWN","No Confirmation"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC3" t="e">
+        <f t="shared" ref="AC3:AC47" si="14">IF(AND(AA3="UP",AB3="UP"),"UP",IF(AND(AA3="DOWN",AB3="DOWN"),"DOWN","No Alert"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD3" t="e">
+        <f t="shared" ref="AD3:AD47" si="15">IF(AC3="UP",MROUND(D3-((D3-E3)*0.886),0.05),IF(AC3="DOWN",MROUND(E3+((D3-E3)*0.886),0.05),"No Alert"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE3" t="e">
+        <f t="shared" ref="AE3:AE47" si="16">IF(AC3="UP",MROUND(D3-((D3-E3)*0.618),0.05),IF(AC3="DOWN",MROUND(E3+((D3-E3)*0.618),0.05),"No Alert"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF3" t="e">
+        <f t="shared" ref="AF3:AF47" si="17">IF(AC3="UP",MROUND(D3-((D3-E3)*0.5),0.05),IF(AC3="DOWN",MROUND(E3+((D3-E3)*0.5),0.05),"No Alert"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG3" t="e">
+        <f t="shared" ref="AG3:AG47" si="18">IF(AC3="UP",MROUND(D3-((D3-E3)*0.382),0.05),IF(AC3="DOWN",MROUND(E3+((D3-E3)*0.382),0.05),"No Alert"))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>42859</v>
@@ -481,12 +840,110 @@
         <v>98</v>
       </c>
       <c r="G4">
-        <v>3684573</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D4,E4,F4)</f>
+        <v>97.466666666666654</v>
+      </c>
+      <c r="H4">
+        <v>97.855555555555554</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>UP</v>
+      </c>
+      <c r="J4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P4" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="5"/>
+        <v>2.3499999999999943</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="6"/>
+        <v>3.0999999999999943</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="7"/>
+        <v>0.75806451612903181</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U4" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X4" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z4" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA4" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB4" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC4" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD4" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE4" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF4" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG4" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>42860</v>
@@ -504,12 +961,110 @@
         <v>95</v>
       </c>
       <c r="G5">
-        <v>2555734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D5,E5,F5)</f>
+        <v>95.45</v>
+      </c>
+      <c r="H5">
+        <v>96.652777777777771</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>3.75</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="7"/>
+        <v>0.32000000000000078</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U5" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X5" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z5" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA5" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB5" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC5" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD5" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE5" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF5" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG5" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>42863</v>
@@ -527,12 +1082,110 @@
         <v>95</v>
       </c>
       <c r="G6">
-        <v>3948442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D6,E6,F6)</f>
+        <v>95.583333333333329</v>
+      </c>
+      <c r="H6">
+        <v>96.118055555555543</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L6" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M6" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O6" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P6" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>0.45000000000000284</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>2.6500000000000057</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="7"/>
+        <v>0.16981132075471769</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="8"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U6" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X6" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z6" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA6" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB6" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC6" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD6" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE6" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF6" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG6" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>42864</v>
@@ -550,12 +1203,110 @@
         <v>96</v>
       </c>
       <c r="G7">
-        <v>2905966</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D7,E7,F7)</f>
+        <v>95.899999999999991</v>
+      </c>
+      <c r="H7">
+        <v>96.00902777777776</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M7" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="3"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P7" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>0.60000000000000375</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U7" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X7" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z7" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA7" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB7" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC7" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD7" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE7" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF7" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG7" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>42865</v>
@@ -573,12 +1324,110 @@
         <v>95</v>
       </c>
       <c r="G8">
-        <v>2901770</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D8,E8,F8)</f>
+        <v>95.416666666666671</v>
+      </c>
+      <c r="H8">
+        <v>95.712847222222223</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L8" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N8">
+        <v>16</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="3"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P8" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="8"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U8" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X8" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z8" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA8" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB8" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC8" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD8" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE8" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF8" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG8" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>42866</v>
@@ -596,12 +1445,110 @@
         <v>97</v>
       </c>
       <c r="G9">
-        <v>3934363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D9,E9,F9)</f>
+        <v>96.733333333333334</v>
+      </c>
+      <c r="H9">
+        <v>96.223090277777771</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>UP</v>
+      </c>
+      <c r="J9">
+        <v>97.96875</v>
+      </c>
+      <c r="K9">
+        <v>95.15</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N9">
+        <v>43.999999999999993</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="3"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>2.2000000000000028</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="7"/>
+        <v>0.68181818181818099</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X9" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z9" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA9" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC9" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD9" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE9" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF9" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG9" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>42867</v>
@@ -619,12 +1566,110 @@
         <v>94</v>
       </c>
       <c r="G10">
-        <v>2729360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D10,E10,F10)</f>
+        <v>94.666666666666671</v>
+      </c>
+      <c r="H10">
+        <v>95.444878472222229</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J10">
+        <v>97.742361111111109</v>
+      </c>
+      <c r="K10">
+        <v>94.683333333333337</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N10">
+        <v>27.076923076923077</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="3"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="4"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>0.95000000000000284</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>3.9000000000000057</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="7"/>
+        <v>0.24358974358974397</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X10" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z10" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA10" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC10" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD10" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE10" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF10" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG10" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>42870</v>
@@ -642,12 +1687,110 @@
         <v>98</v>
       </c>
       <c r="G11">
-        <v>3616693</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D11,E11,F11)</f>
+        <v>96.649999999999991</v>
+      </c>
+      <c r="H11">
+        <v>96.047439236111103</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>UP</v>
+      </c>
+      <c r="J11">
+        <v>97.777391975308646</v>
+      </c>
+      <c r="K11">
+        <v>94.542592592592598</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>UP</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v>UP</v>
+      </c>
+      <c r="N11">
+        <v>55.5625</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="3"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>3.9500000000000028</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>3.8500000000000085</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="7"/>
+        <v>1.0259740259740244</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="8"/>
+        <v>UP</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X11" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z11" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA11" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC11" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD11" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE11" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF11" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG11" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>42871</v>
@@ -665,12 +1808,110 @@
         <v>101</v>
       </c>
       <c r="G12">
-        <v>8251673</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D12,E12,F12)</f>
+        <v>99.633333333333326</v>
+      </c>
+      <c r="H12">
+        <v>97.840386284722214</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>UP</v>
+      </c>
+      <c r="J12">
+        <v>98.449082647462276</v>
+      </c>
+      <c r="K12">
+        <v>95.110905349794237</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>UP</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>UP</v>
+      </c>
+      <c r="N12">
+        <v>67.473909935668331</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="3"/>
+        <v>UP</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="4"/>
+        <v>UP</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>3.9000000000000057</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>3.7000000000000028</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="7"/>
+        <v>1.0540540540540548</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="8"/>
+        <v>UP</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="9"/>
+        <v>UP</v>
+      </c>
+      <c r="V12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X12" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z12" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA12" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC12" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD12" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE12" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF12" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG12" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1">
         <v>42872</v>
@@ -688,12 +1929,110 @@
         <v>101</v>
       </c>
       <c r="G13">
-        <v>9866001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D13,E13,F13)</f>
+        <v>101.58333333333333</v>
+      </c>
+      <c r="H13">
+        <v>99.711859809027771</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>UP</v>
+      </c>
+      <c r="J13">
+        <v>99.604842059137326</v>
+      </c>
+      <c r="K13">
+        <v>96.219593049839958</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>UP</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v>UP</v>
+      </c>
+      <c r="N13">
+        <v>67.473909935668331</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="3"/>
+        <v>UP</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="4"/>
+        <v>UP</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>3.5500000000000114</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="7"/>
+        <v>0.25352112676056415</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V13">
+        <v>97.25</v>
+      </c>
+      <c r="W13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X13" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z13" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA13" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="13"/>
+        <v>UP</v>
+      </c>
+      <c r="AC13" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD13" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE13" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF13" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG13" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1">
         <v>42873</v>
@@ -711,12 +2050,110 @@
         <v>97</v>
       </c>
       <c r="G14">
-        <v>4163676</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D14,E14,F14)</f>
+        <v>98.133333333333326</v>
+      </c>
+      <c r="H14">
+        <v>98.922596571180549</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J14">
+        <v>99.88154382377347</v>
+      </c>
+      <c r="K14">
+        <v>96.293016816542192</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N14">
+        <v>43.295952299048281</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="3"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>0.45000000000000284</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>4.2999999999999972</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>0.1046511627906984</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="8"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V14">
+        <v>97.211538461538467</v>
+      </c>
+      <c r="W14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X14" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z14" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA14" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC14" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD14" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE14" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF14" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG14" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
         <v>42874</v>
@@ -734,12 +2171,110 @@
         <v>96</v>
       </c>
       <c r="G15">
-        <v>3782348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D15,E15,F15)</f>
+        <v>96.5</v>
+      </c>
+      <c r="H15">
+        <v>97.711298285590274</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J15">
+        <v>99.741200751823811</v>
+      </c>
+      <c r="K15">
+        <v>95.839013079532819</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N15">
+        <v>38.935969734662713</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="3"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>0.35</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V15">
+        <v>97.025147928994087</v>
+      </c>
+      <c r="W15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X15" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z15" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA15" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC15" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD15" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE15" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF15" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG15" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1">
         <v>42877</v>
@@ -757,12 +2292,110 @@
         <v>95</v>
       </c>
       <c r="G16">
-        <v>3829849</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D16,E16,F16)</f>
+        <v>95.866666666666674</v>
+      </c>
+      <c r="H16">
+        <v>96.788982476128467</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J16">
+        <v>99.343156140307414</v>
+      </c>
+      <c r="K16">
+        <v>95.574787950747748</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N16">
+        <v>34.582782006643114</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="3"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="4"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>3.2999999999999972</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>0.10606060606060443</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="8"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="9"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V16">
+        <v>96.713586709148842</v>
+      </c>
+      <c r="W16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X16" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z16" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA16" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC16" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD16" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE16" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF16" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG16" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1">
         <v>42878</v>
@@ -780,12 +2413,110 @@
         <v>90</v>
       </c>
       <c r="G17">
-        <v>5042864</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D17,E17,F17)</f>
+        <v>91.399999999999991</v>
+      </c>
+      <c r="H17">
+        <v>94.094491238064222</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J17">
+        <v>98.378010331350211</v>
+      </c>
+      <c r="K17">
+        <v>94.158168406137136</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N17">
+        <v>20.357500451223526</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="3"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="4"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>0.1379310344827582</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="8"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="9"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V17">
+        <v>95.680727215433635</v>
+      </c>
+      <c r="W17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X17" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z17" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA17" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="13"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC17" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD17" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE17" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF17" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG17" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1">
         <v>42879</v>
@@ -803,12 +2534,110 @@
         <v>84</v>
       </c>
       <c r="G18">
-        <v>11587471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D18,E18,F18)</f>
+        <v>84.033333333333346</v>
+      </c>
+      <c r="H18">
+        <v>89.063912285698791</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J18">
+        <v>96.049563591050159</v>
+      </c>
+      <c r="K18">
+        <v>91.05635320477333</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N18">
+        <v>12.589594652227628</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="3"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="4"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>3.7999999999999972</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>7.7000000000000028</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="7"/>
+        <v>0.49350649350649295</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V18">
+        <v>93.883692259213078</v>
+      </c>
+      <c r="W18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X18" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z18" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA18" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="13"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC18" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD18" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE18" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF18" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG18" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
         <v>42880</v>
@@ -826,12 +2655,110 @@
         <v>86</v>
       </c>
       <c r="G19">
-        <v>16966835</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D19,E19,F19)</f>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="H19">
+        <v>86.331956142849407</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J19">
+        <v>94.016327237483452</v>
+      </c>
+      <c r="K19">
+        <v>88.132719159268149</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N19">
+        <v>24.58049832127227</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="3"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="4"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>8.0999999999999943</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="7"/>
+        <v>0.89999999999999936</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="8"/>
+        <v>UP</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V19">
+        <v>92.670816527026446</v>
+      </c>
+      <c r="W19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X19" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z19" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA19" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="13"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC19" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD19" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE19" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF19" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG19" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1">
         <v>42881</v>
@@ -849,12 +2776,110 @@
         <v>87</v>
       </c>
       <c r="G20">
-        <v>3286675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D20,E20,F20)</f>
+        <v>86.716666666666654</v>
+      </c>
+      <c r="H20">
+        <v>86.524311404758038</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>UP</v>
+      </c>
+      <c r="J20">
+        <v>92.690476740264913</v>
+      </c>
+      <c r="K20">
+        <v>87.458781568319665</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N20">
+        <v>30.536129256001445</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="3"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>2.9500000000000028</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="7"/>
+        <v>0.64406779661017077</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V20">
+        <v>91.79838321517623</v>
+      </c>
+      <c r="W20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X20" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z20" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA20" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="13"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC20" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD20" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE20" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF20" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG20" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1">
         <v>42884</v>
@@ -872,12 +2897,110 @@
         <v>85</v>
       </c>
       <c r="G21">
-        <v>2762009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D21,E21,F21)</f>
+        <v>85.983333333333334</v>
+      </c>
+      <c r="H21">
+        <v>86.253822369045679</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J21">
+        <v>91.737037464650484</v>
+      </c>
+      <c r="K21">
+        <v>86.812385664248623</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N21">
+        <v>25.501670791301901</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="3"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="4"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>0.45000000000000284</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>3.8500000000000085</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="7"/>
+        <v>0.11688311688311737</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="8"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="9"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V21">
+        <v>90.752478105149123</v>
+      </c>
+      <c r="W21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X21" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z21" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA21" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="13"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC21" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD21" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE21" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF21" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG21" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1">
         <v>42885</v>
@@ -895,12 +3018,110 @@
         <v>85</v>
       </c>
       <c r="G22">
-        <v>3156651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D22,E22,F22)</f>
+        <v>84.483333333333334</v>
+      </c>
+      <c r="H22">
+        <v>85.368577851189514</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J22">
+        <v>90.406584694728153</v>
+      </c>
+      <c r="K22">
+        <v>85.898522183304479</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="2"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N22">
+        <v>25.501670791301901</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="3"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="4"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>2.2999999999999972</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>3.0499999999999972</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="7"/>
+        <v>0.75409836065573743</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V22">
+        <v>89.867481473587716</v>
+      </c>
+      <c r="W22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X22" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z22" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA22" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="13"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC22" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD22" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE22" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF22" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG22" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1">
         <v>42886</v>
@@ -918,12 +3139,110 @@
         <v>88</v>
       </c>
       <c r="G23">
-        <v>5956202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D23,E23,F23)</f>
+        <v>87</v>
+      </c>
+      <c r="H23">
+        <v>86.184288925594757</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>UP</v>
+      </c>
+      <c r="J23">
+        <v>89.982899207010789</v>
+      </c>
+      <c r="K23">
+        <v>85.58773947590349</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N23">
+        <v>46.265356065227891</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="3"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="7"/>
+        <v>0.875</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="8"/>
+        <v>UP</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V23">
+        <v>89.580176631497295</v>
+      </c>
+      <c r="W23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X23" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z23" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA23" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD23" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE23" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF23" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG23" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="1">
         <v>42887</v>
@@ -941,12 +3260,110 @@
         <v>87</v>
       </c>
       <c r="G24">
-        <v>2406887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D24,E24,F24)</f>
+        <v>87.366666666666674</v>
+      </c>
+      <c r="H24">
+        <v>86.775477796130716</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>UP</v>
+      </c>
+      <c r="J24">
+        <v>89.642254938786166</v>
+      </c>
+      <c r="K24">
+        <v>85.823797370147162</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N24">
+        <v>41.451561441538018</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="3"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="6"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="7"/>
+        <v>0.19444444444444159</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="8"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V24">
+        <v>89.183226380497715</v>
+      </c>
+      <c r="W24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X24" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z24" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA24" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC24" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE24" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF24" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG24" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1">
         <v>42888</v>
@@ -964,12 +3381,110 @@
         <v>88</v>
       </c>
       <c r="G25">
-        <v>7742009</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D25,E25,F25)</f>
+        <v>88.033333333333346</v>
+      </c>
+      <c r="H25">
+        <v>87.404405564732031</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>UP</v>
+      </c>
+      <c r="J25">
+        <v>89.610642730167015</v>
+      </c>
+      <c r="K25">
+        <v>85.996286843447791</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N25">
+        <v>48.189944820758242</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="3"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="6"/>
+        <v>2.9000000000000057</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="7"/>
+        <v>0.48275862068965619</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V25">
+        <v>89.001191552728841</v>
+      </c>
+      <c r="W25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X25" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z25" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA25" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC25" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD25" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF25" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG25" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="1">
         <v>42891</v>
@@ -987,12 +3502,110 @@
         <v>87</v>
       </c>
       <c r="G26">
-        <v>2289444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D26,E26,F26)</f>
+        <v>87.383333333333326</v>
+      </c>
+      <c r="H26">
+        <v>87.393869449032678</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J26">
+        <v>89.330499901241012</v>
+      </c>
+      <c r="K26">
+        <v>86.174889767126061</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N26">
+        <v>42.129106966757895</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="3"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="6"/>
+        <v>1.5499999999999972</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="7"/>
+        <v>0.12903225806451821</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="8"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V26">
+        <v>88.693315929232099</v>
+      </c>
+      <c r="W26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X26" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z26" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA26" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB26" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC26" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD26" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE26" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF26" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG26" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1">
         <v>42892</v>
@@ -1010,12 +3623,110 @@
         <v>85</v>
       </c>
       <c r="G27">
-        <v>3517344</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D27,E27,F27)</f>
+        <v>85.55</v>
+      </c>
+      <c r="H27">
+        <v>86.471934724516331</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J27">
+        <v>88.92372214540967</v>
+      </c>
+      <c r="K27">
+        <v>85.724914263320272</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N27">
+        <v>32.051373108910795</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="3"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="4"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="5"/>
+        <v>0.84999999999999432</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="6"/>
+        <v>3.3499999999999943</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="7"/>
+        <v>0.25373134328358082</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V27">
+        <v>88.125113478581014</v>
+      </c>
+      <c r="W27">
+        <v>92.57692307692308</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="10"/>
+        <v>-4.4518095983420665</v>
+      </c>
+      <c r="Y27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z27" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA27" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB27" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC27" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD27" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE27" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF27" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG27" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1">
         <v>42893</v>
@@ -1033,12 +3744,110 @@
         <v>87</v>
       </c>
       <c r="G28">
-        <v>6046788</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D28,E28,F28)</f>
+        <v>86.866666666666674</v>
+      </c>
+      <c r="H28">
+        <v>86.669300695591502</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>UP</v>
+      </c>
+      <c r="J28">
+        <v>88.896228335318625</v>
+      </c>
+      <c r="K28">
+        <v>85.519377760360214</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N28">
+        <v>47.69212763473444</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="3"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="5"/>
+        <v>2.2000000000000028</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="7"/>
+        <v>0.55000000000000071</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V28">
+        <v>87.952019097260859</v>
+      </c>
+      <c r="W28">
+        <v>92.163817663817667</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="10"/>
+        <v>-4.2117985665568085</v>
+      </c>
+      <c r="Y28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z28" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA28" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB28" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC28" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD28" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE28" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF28" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG28" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1">
         <v>42894</v>
@@ -1056,12 +3865,110 @@
         <v>86</v>
       </c>
       <c r="G29">
-        <v>2057305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D29,E29,F29)</f>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="H29">
+        <v>86.534650347795747</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J29">
+        <v>88.574844260803374</v>
+      </c>
+      <c r="K29">
+        <v>85.570627146946833</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N29">
+        <v>41.693820193448623</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="3"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="6"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="7"/>
+        <v>0.14705882352941152</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="8"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V29">
+        <v>87.651708466913036</v>
+      </c>
+      <c r="W29">
+        <v>91.707238577608948</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="10"/>
+        <v>-4.0555301106959121</v>
+      </c>
+      <c r="Y29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z29" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA29" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB29" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC29" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD29" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE29" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF29" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG29" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1">
         <v>42895</v>
@@ -1079,12 +3986,110 @@
         <v>91</v>
       </c>
       <c r="G30">
-        <v>13217751</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D30,E30,F30)</f>
+        <v>89.283333333333346</v>
+      </c>
+      <c r="H30">
+        <v>87.908991840564539</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>UP</v>
+      </c>
+      <c r="J30">
+        <v>89.169323313958174</v>
+      </c>
+      <c r="K30">
+        <v>85.577154447625318</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>UP</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>UP</v>
+      </c>
+      <c r="N30">
+        <v>67.35506929362036</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="3"/>
+        <v>UP</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="4"/>
+        <v>UP</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="5"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="6"/>
+        <v>5.6500000000000057</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="7"/>
+        <v>0.95575221238938057</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="8"/>
+        <v>UP</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="9"/>
+        <v>UP</v>
+      </c>
+      <c r="V30">
+        <v>88.166830241234109</v>
+      </c>
+      <c r="W30">
+        <v>91.654850534823098</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="10"/>
+        <v>-3.4880202935889884</v>
+      </c>
+      <c r="Y30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z30" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA30" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB30" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC30" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD30" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE30" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF30" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG30" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1">
         <v>42898</v>
@@ -1102,12 +4107,110 @@
         <v>91</v>
       </c>
       <c r="G31">
-        <v>7056436</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D31,E31,F31)</f>
+        <v>91.416666666666671</v>
+      </c>
+      <c r="H31">
+        <v>89.662829253615598</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>UP</v>
+      </c>
+      <c r="J31">
+        <v>90.065029244189688</v>
+      </c>
+      <c r="K31">
+        <v>86.571120125930804</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>UP</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>UP</v>
+      </c>
+      <c r="N31">
+        <v>67.35506929362036</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="3"/>
+        <v>UP</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="4"/>
+        <v>UP</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="5"/>
+        <v>0.95000000000000284</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="6"/>
+        <v>3.1500000000000057</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="7"/>
+        <v>0.30158730158730196</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V31">
+        <v>88.602702511813476</v>
+      </c>
+      <c r="W31">
+        <v>91.606343087799161</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="10"/>
+        <v>-3.0036405759856848</v>
+      </c>
+      <c r="Y31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z31" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA31" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB31" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC31" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD31" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE31" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF31" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG31" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="1">
         <v>42899</v>
@@ -1125,12 +4228,110 @@
         <v>91</v>
       </c>
       <c r="G32">
-        <v>3998221</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D32,E32,F32)</f>
+        <v>91.483333333333334</v>
+      </c>
+      <c r="H32">
+        <v>90.573081293474473</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>UP</v>
+      </c>
+      <c r="J32">
+        <v>90.728356078814201</v>
+      </c>
+      <c r="K32">
+        <v>87.421982320168411</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v>UP</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>UP</v>
+      </c>
+      <c r="N32">
+        <v>67.35506929362036</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="3"/>
+        <v>UP</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="4"/>
+        <v>UP</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="5"/>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="6"/>
+        <v>2.6499999999999915</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="7"/>
+        <v>0.22641509433962123</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V32">
+        <v>88.971517509996019</v>
+      </c>
+      <c r="W32">
+        <v>91.561428784999222</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="10"/>
+        <v>-2.5899112750032032</v>
+      </c>
+      <c r="Y32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z32" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA32" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB32" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC32" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD32" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE32" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF32" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG32" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1">
         <v>42900</v>
@@ -1148,12 +4349,110 @@
         <v>91</v>
       </c>
       <c r="G33">
-        <v>4277038</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D33,E33,F33)</f>
+        <v>90.933333333333337</v>
+      </c>
+      <c r="H33">
+        <v>90.753207313403905</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>UP</v>
+      </c>
+      <c r="J33">
+        <v>91.010943616855485</v>
+      </c>
+      <c r="K33">
+        <v>87.950430693464313</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N33">
+        <v>67.35506929362036</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="3"/>
+        <v>UP</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="5"/>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="6"/>
+        <v>2.2000000000000028</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="7"/>
+        <v>0.54545454545454608</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V33">
+        <v>89.283591739227404</v>
+      </c>
+      <c r="W33">
+        <v>91.519841467591874</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="10"/>
+        <v>-2.23624972836447</v>
+      </c>
+      <c r="Y33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z33" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA33" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB33" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC33" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD33" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE33" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF33" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG33" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="1">
         <v>42901</v>
@@ -1171,12 +4470,110 @@
         <v>90</v>
       </c>
       <c r="G34">
-        <v>3035635</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D34,E34,F34)</f>
+        <v>90.350000000000009</v>
+      </c>
+      <c r="H34">
+        <v>90.551603656701957</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J34">
+        <v>91.130733924220934</v>
+      </c>
+      <c r="K34">
+        <v>88.294779428250024</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N34">
+        <v>55.440905475760147</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="3"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="6"/>
+        <v>2.0499999999999972</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="7"/>
+        <v>0.24390243902439057</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V34">
+        <v>89.393808394730883</v>
+      </c>
+      <c r="W34">
+        <v>91.407260618140626</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="10"/>
+        <v>-2.0134522234097432</v>
+      </c>
+      <c r="Y34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z34" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA34" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB34" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC34" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD34" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE34" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF34" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG34" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1">
         <v>42902</v>
@@ -1194,12 +4591,110 @@
         <v>90</v>
       </c>
       <c r="G35">
-        <v>3720466</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D35,E35,F35)</f>
+        <v>90.583333333333329</v>
+      </c>
+      <c r="H35">
+        <v>90.567468495017636</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J35">
+        <v>91.323904163282947</v>
+      </c>
+      <c r="K35">
+        <v>88.618161777527803</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N35">
+        <v>55.440905475760161</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="3"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="6"/>
+        <v>2.25</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="7"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="8"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V35">
+        <v>89.487068641695359</v>
+      </c>
+      <c r="W35">
+        <v>91.303019090870947</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="10"/>
+        <v>-1.8159504491755882</v>
+      </c>
+      <c r="Y35">
+        <v>-3.0962625356802738</v>
+      </c>
+      <c r="Z35" t="str">
+        <f t="shared" si="11"/>
+        <v>UP</v>
+      </c>
+      <c r="AA35" t="str">
+        <f t="shared" si="12"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB35" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC35" t="str">
+        <f t="shared" si="14"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD35" t="str">
+        <f t="shared" si="15"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE35" t="str">
+        <f t="shared" si="16"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF35" t="str">
+        <f t="shared" si="17"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG35" t="str">
+        <f t="shared" si="18"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="1">
         <v>42905</v>
@@ -1217,12 +4712,110 @@
         <v>92</v>
       </c>
       <c r="G36">
-        <v>2366151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D36,E36,F36)</f>
+        <v>91.45</v>
+      </c>
+      <c r="H36">
+        <v>91.008734247508812</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>UP</v>
+      </c>
+      <c r="J36">
+        <v>91.451925460331182</v>
+      </c>
+      <c r="K36">
+        <v>89.025236938077185</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v>UP</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="2"/>
+        <v>UP</v>
+      </c>
+      <c r="N36">
+        <v>71.303453176617552</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="3"/>
+        <v>UP</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="4"/>
+        <v>UP</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="5"/>
+        <v>1.5499999999999972</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="6"/>
+        <v>1.4500000000000028</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="7"/>
+        <v>1.0689655172413752</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="8"/>
+        <v>UP</v>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" si="9"/>
+        <v>UP</v>
+      </c>
+      <c r="V36">
+        <v>89.873673466049922</v>
+      </c>
+      <c r="W36">
+        <v>91.354647306361983</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="10"/>
+        <v>-1.4809738403120605</v>
+      </c>
+      <c r="Y36">
+        <v>-2.7732047966066311</v>
+      </c>
+      <c r="Z36" t="str">
+        <f t="shared" si="11"/>
+        <v>UP</v>
+      </c>
+      <c r="AA36" t="str">
+        <f t="shared" si="12"/>
+        <v>UP</v>
+      </c>
+      <c r="AB36" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC36" t="str">
+        <f t="shared" si="14"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD36" t="str">
+        <f t="shared" si="15"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE36" t="str">
+        <f t="shared" si="16"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF36" t="str">
+        <f t="shared" si="17"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG36" t="str">
+        <f t="shared" si="18"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="1">
         <v>42906</v>
@@ -1240,12 +4833,110 @@
         <v>91</v>
       </c>
       <c r="G37">
-        <v>4540548</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D37,E37,F37)</f>
+        <v>91.3</v>
+      </c>
+      <c r="H37">
+        <v>91.154367123754412</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J37">
+        <v>91.784830913590923</v>
+      </c>
+      <c r="K37">
+        <v>89.230739840726699</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N37">
+        <v>58.326260945457634</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="3"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="5"/>
+        <v>1.0499999999999972</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="7"/>
+        <v>0.34999999999999903</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U37" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V37">
+        <v>90.046954471273011</v>
+      </c>
+      <c r="W37">
+        <v>91.328377135520356</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="10"/>
+        <v>-1.2814226642473443</v>
+      </c>
+      <c r="Y37">
+        <v>-2.4748483701347737</v>
+      </c>
+      <c r="Z37" t="str">
+        <f t="shared" si="11"/>
+        <v>UP</v>
+      </c>
+      <c r="AA37" t="str">
+        <f t="shared" si="12"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB37" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC37" t="str">
+        <f t="shared" si="14"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD37" t="str">
+        <f t="shared" si="15"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE37" t="str">
+        <f t="shared" si="16"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF37" t="str">
+        <f t="shared" si="17"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG37" t="str">
+        <f t="shared" si="18"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="1">
         <v>42907</v>
@@ -1263,12 +4954,110 @@
         <v>91</v>
       </c>
       <c r="G38">
-        <v>2169580</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D38,E38,F38)</f>
+        <v>91.100000000000009</v>
+      </c>
+      <c r="H38">
+        <v>91.127183561877217</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J38">
+        <v>91.821535155015169</v>
+      </c>
+      <c r="K38">
+        <v>89.479464320565214</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="1"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N38">
+        <v>58.326260945457634</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="3"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="5"/>
+        <v>0.65000000000000568</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000085</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="7"/>
+        <v>0.40625000000000139</v>
+      </c>
+      <c r="T38" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U38" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V38">
+        <v>90.193576860307928</v>
+      </c>
+      <c r="W38">
+        <v>91.304052903259588</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="10"/>
+        <v>-1.1104760429516602</v>
+      </c>
+      <c r="Y38">
+        <v>-2.2019739046981508</v>
+      </c>
+      <c r="Z38" t="str">
+        <f t="shared" si="11"/>
+        <v>UP</v>
+      </c>
+      <c r="AA38" t="str">
+        <f t="shared" si="12"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB38" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC38" t="str">
+        <f t="shared" si="14"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD38" t="str">
+        <f t="shared" si="15"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE38" t="str">
+        <f t="shared" si="16"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF38" t="str">
+        <f t="shared" si="17"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG38" t="str">
+        <f t="shared" si="18"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="1">
         <v>42908</v>
@@ -1286,12 +5075,110 @@
         <v>92</v>
       </c>
       <c r="G39">
-        <v>5095304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D39,E39,F39)</f>
+        <v>91.933333333333337</v>
+      </c>
+      <c r="H39">
+        <v>91.530258447605277</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>UP</v>
+      </c>
+      <c r="J39">
+        <v>92.116749565011801</v>
+      </c>
+      <c r="K39">
+        <v>89.73958336043961</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="1"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N39">
+        <v>67.553273127562761</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="3"/>
+        <v>UP</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="5"/>
+        <v>1.3499999999999943</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="7"/>
+        <v>0.5399999999999977</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U39" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V39">
+        <v>90.471488112568252</v>
+      </c>
+      <c r="W39">
+        <v>91.355604540055168</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="10"/>
+        <v>-0.88411642748691577</v>
+      </c>
+      <c r="Y39">
+        <v>-1.9384024092559038</v>
+      </c>
+      <c r="Z39" t="str">
+        <f t="shared" si="11"/>
+        <v>UP</v>
+      </c>
+      <c r="AA39" t="str">
+        <f t="shared" si="12"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB39" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC39" t="str">
+        <f t="shared" si="14"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD39" t="str">
+        <f t="shared" si="15"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE39" t="str">
+        <f t="shared" si="16"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF39" t="str">
+        <f t="shared" si="17"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG39" t="str">
+        <f t="shared" si="18"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" s="1">
         <v>42909</v>
@@ -1309,12 +5196,110 @@
         <v>90</v>
       </c>
       <c r="G40">
-        <v>5861474</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D40,E40,F40)</f>
+        <v>89.95</v>
+      </c>
+      <c r="H40">
+        <v>90.74012922380264</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J40">
+        <v>92.168582995009174</v>
+      </c>
+      <c r="K40">
+        <v>89.241898169230808</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="1"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N40">
+        <v>43.48381639584489</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="3"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>4.8499999999999943</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="7"/>
+        <v>0.51546391752577381</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U40" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V40">
+        <v>90.398951479865445</v>
+      </c>
+      <c r="W40">
+        <v>91.255189388939968</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="10"/>
+        <v>-0.85623790907452246</v>
+      </c>
+      <c r="Y40">
+        <v>-1.7219695092196274</v>
+      </c>
+      <c r="Z40" t="str">
+        <f t="shared" si="11"/>
+        <v>UP</v>
+      </c>
+      <c r="AA40" t="str">
+        <f t="shared" si="12"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB40" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC40" t="str">
+        <f t="shared" si="14"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD40" t="str">
+        <f t="shared" si="15"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE40" t="str">
+        <f t="shared" si="16"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF40" t="str">
+        <f t="shared" si="17"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG40" t="str">
+        <f t="shared" si="18"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1">
         <v>42913</v>
@@ -1332,12 +5317,110 @@
         <v>88</v>
       </c>
       <c r="G41">
-        <v>2830830</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D41,E41,F41)</f>
+        <v>88.516666666666666</v>
+      </c>
+      <c r="H41">
+        <v>89.628397945234653</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J41">
+        <v>91.720008996118253</v>
+      </c>
+      <c r="K41">
+        <v>88.8325874649573</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="2"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N41">
+        <v>30.08471217108233</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="3"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="4"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="5"/>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="6"/>
+        <v>2.75</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="7"/>
+        <v>0.21818181818181612</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U41" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V41">
+        <v>90.029882021424612</v>
+      </c>
+      <c r="W41">
+        <v>91.014064249018489</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="10"/>
+        <v>-0.98418222759387675</v>
+      </c>
+      <c r="Y41">
+        <v>-1.5744120528944774</v>
+      </c>
+      <c r="Z41" t="str">
+        <f t="shared" si="11"/>
+        <v>UP</v>
+      </c>
+      <c r="AA41" t="str">
+        <f t="shared" si="12"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB41" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC41" t="str">
+        <f t="shared" si="14"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD41" t="str">
+        <f t="shared" si="15"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE41" t="str">
+        <f t="shared" si="16"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF41" t="str">
+        <f t="shared" si="17"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG41" t="str">
+        <f t="shared" si="18"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" s="1">
         <v>42914</v>
@@ -1355,12 +5438,110 @@
         <v>89</v>
       </c>
       <c r="G42">
-        <v>3110924</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D42,E42,F42)</f>
+        <v>89.083333333333329</v>
+      </c>
+      <c r="H42">
+        <v>89.355865639283991</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J42">
+        <v>91.515562552536423</v>
+      </c>
+      <c r="K42">
+        <v>88.525345806077894</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="1"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N42">
+        <v>41.375130166862391</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="3"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="5"/>
+        <v>1.5499999999999972</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>3.3499999999999943</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="7"/>
+        <v>0.46268656716417905</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U42" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V42">
+        <v>89.871438633513137</v>
+      </c>
+      <c r="W42">
+        <v>90.864874304646747</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="10"/>
+        <v>-0.99343567113361075</v>
+      </c>
+      <c r="Y42">
+        <v>-1.458216776542304</v>
+      </c>
+      <c r="Z42" t="str">
+        <f t="shared" si="11"/>
+        <v>UP</v>
+      </c>
+      <c r="AA42" t="str">
+        <f t="shared" si="12"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB42" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC42" t="str">
+        <f t="shared" si="14"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD42" t="str">
+        <f t="shared" si="15"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE42" t="str">
+        <f t="shared" si="16"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF42" t="str">
+        <f t="shared" si="17"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG42" t="str">
+        <f t="shared" si="18"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" s="1">
         <v>42915</v>
@@ -1378,12 +5559,110 @@
         <v>89</v>
       </c>
       <c r="G43">
-        <v>7094536</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D43,E43,F43)</f>
+        <v>89.266666666666666</v>
+      </c>
+      <c r="H43">
+        <v>89.311266152975321</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J43">
+        <v>91.223215318639447</v>
+      </c>
+      <c r="K43">
+        <v>88.541935626949467</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="1"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="2"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N43">
+        <v>41.375130166862398</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="3"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="4"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="5"/>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000085</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="7"/>
+        <v>0.25000000000000222</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U43" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V43">
+        <v>89.737371151434189</v>
+      </c>
+      <c r="W43">
+        <v>90.726735467265513</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="10"/>
+        <v>-0.98936431583132389</v>
+      </c>
+      <c r="Y43">
+        <v>-1.364446284400108</v>
+      </c>
+      <c r="Z43" t="str">
+        <f t="shared" si="11"/>
+        <v>UP</v>
+      </c>
+      <c r="AA43" t="str">
+        <f t="shared" si="12"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB43" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC43" t="str">
+        <f t="shared" si="14"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD43" t="str">
+        <f t="shared" si="15"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE43" t="str">
+        <f t="shared" si="16"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF43" t="str">
+        <f t="shared" si="17"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG43" t="str">
+        <f t="shared" si="18"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="1">
         <v>42916</v>
@@ -1401,19 +5680,471 @@
         <v>88</v>
       </c>
       <c r="G44">
-        <v>3258821</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <f>_xll.TA_TYPPRICE(D44,E44,F44)</f>
+        <v>87.866666666666674</v>
+      </c>
+      <c r="H44">
+        <v>88.588966409820998</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J44">
+        <v>90.662500803386237</v>
+      </c>
+      <c r="K44">
+        <v>88.177061043182917</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="2"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N44">
+        <v>33.038688798227476</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="3"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="4"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="5"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="6"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="7"/>
+        <v>0.61111111111110894</v>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U44" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V44">
+        <v>89.470083281982781</v>
+      </c>
+      <c r="W44">
+        <v>90.524755062282878</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="10"/>
+        <v>-1.0546717803000973</v>
+      </c>
+      <c r="Y44">
+        <v>-1.3024913835801057</v>
+      </c>
+      <c r="Z44" t="str">
+        <f t="shared" si="11"/>
+        <v>UP</v>
+      </c>
+      <c r="AA44" t="str">
+        <f t="shared" si="12"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB44" t="str">
+        <f t="shared" si="13"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC44" t="str">
+        <f t="shared" si="14"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD44" t="str">
+        <f t="shared" si="15"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE44" t="str">
+        <f t="shared" si="16"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF44" t="str">
+        <f t="shared" si="17"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG44" t="str">
+        <f t="shared" si="18"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C45">
+        <v>84</v>
+      </c>
+      <c r="D45">
+        <v>84.85</v>
+      </c>
+      <c r="E45">
+        <v>81.150000000000006</v>
+      </c>
+      <c r="F45">
+        <v>81.75</v>
+      </c>
+      <c r="G45">
+        <f>_xll.TA_TYPPRICE(D45,E45,F45)</f>
+        <v>82.583333333333329</v>
+      </c>
+      <c r="H45">
+        <v>85.586149871577163</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J45">
+        <v>89.370833958189294</v>
+      </c>
+      <c r="K45">
+        <v>86.615491922475599</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="2"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N45">
+        <v>12.835062169997617</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="3"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="4"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="5"/>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="6"/>
+        <v>3.6999999999999886</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="7"/>
+        <v>0.16216216216216112</v>
+      </c>
+      <c r="T45" t="str">
+        <f t="shared" si="8"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U45" t="str">
+        <f t="shared" si="9"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V45">
+        <v>88.282378161677741</v>
+      </c>
+      <c r="W45">
+        <v>89.874773205817476</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="10"/>
+        <v>-1.5923950441397352</v>
+      </c>
+      <c r="Y45">
+        <v>-1.3604721156920316</v>
+      </c>
+      <c r="Z45" t="str">
+        <f t="shared" si="11"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA45" t="str">
+        <f t="shared" si="12"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB45" t="str">
+        <f t="shared" si="13"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC45" t="str">
+        <f t="shared" si="14"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="15"/>
+        <v>84.45</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="16"/>
+        <v>83.45</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="17"/>
+        <v>83</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="18"/>
+        <v>82.550000000000011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C46">
+        <v>82.05</v>
+      </c>
+      <c r="D46">
+        <v>83.2</v>
+      </c>
+      <c r="E46">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="F46">
+        <v>81.55</v>
+      </c>
+      <c r="G46">
+        <f>_xll.TA_TYPPRICE(D46,E46,F46)</f>
+        <v>81.95</v>
+      </c>
+      <c r="H46">
+        <v>83.768074935788576</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J46">
+        <v>87.999537523036125</v>
+      </c>
+      <c r="K46">
+        <v>85.389827050814347</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="2"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N46">
+        <v>12.528605377164778</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="3"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="4"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="5"/>
+        <v>0.45000000000000284</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="6"/>
+        <v>2.1000000000000085</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="7"/>
+        <v>0.21428571428571477</v>
+      </c>
+      <c r="T46" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U46" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V46">
+        <v>87.246627675265785</v>
+      </c>
+      <c r="W46">
+        <v>89.258123338719884</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="10"/>
+        <v>-2.0114956634540988</v>
+      </c>
+      <c r="Y46">
+        <v>-1.4906768252444451</v>
+      </c>
+      <c r="Z46" t="str">
+        <f t="shared" si="11"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA46" t="str">
+        <f t="shared" si="12"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB46" t="str">
+        <f t="shared" si="13"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC46" t="str">
+        <f t="shared" si="14"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD46" t="str">
+        <f t="shared" si="15"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE46" t="str">
+        <f t="shared" si="16"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF46" t="str">
+        <f t="shared" si="17"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG46" t="str">
+        <f t="shared" si="18"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C47">
+        <v>82.15</v>
+      </c>
+      <c r="D47">
+        <v>84.3</v>
+      </c>
+      <c r="E47">
+        <v>82.15</v>
+      </c>
+      <c r="F47">
+        <v>82.9</v>
+      </c>
+      <c r="G47">
+        <f>_xll.TA_TYPPRICE(D47,E47,F47)</f>
+        <v>83.11666666666666</v>
+      </c>
+      <c r="H47">
+        <v>83.442370801227611</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J47">
+        <v>87.177418073472538</v>
+      </c>
+      <c r="K47">
+        <v>84.669865483966717</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="2"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N47">
+        <v>27.195643731535935</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="3"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="4"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="6"/>
+        <v>2.1499999999999915</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="7"/>
+        <v>0.34883720930232698</v>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" si="8"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U47" t="str">
+        <f t="shared" si="9"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V47">
+        <v>86.577915725224898</v>
+      </c>
+      <c r="W47">
+        <v>88.787151239555442</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="10"/>
+        <v>-2.209235514330544</v>
+      </c>
+      <c r="Y47">
+        <v>-1.6343885630616648</v>
+      </c>
+      <c r="Z47" t="str">
+        <f t="shared" si="11"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA47" t="str">
+        <f t="shared" si="12"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB47" t="str">
+        <f t="shared" si="13"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC47" t="str">
+        <f t="shared" si="14"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD47" t="str">
+        <f t="shared" si="15"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE47" t="str">
+        <f t="shared" si="16"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF47" t="str">
+        <f t="shared" si="17"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG47" t="str">
+        <f t="shared" si="18"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
